--- a/fw-ig/tims-poc-ig/branch/master/StructureDefinition-fsh-patient.xlsx
+++ b/fw-ig/tims-poc-ig/branch/master/StructureDefinition-fsh-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:50:12+00:00</t>
+    <t>2022-09-06T16:07:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
